--- a/public/uploads/excel/report-subcontractor.xlsx
+++ b/public/uploads/excel/report-subcontractor.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="18">
   <si>
     <t> </t>
   </si>
@@ -68,219 +68,6 @@
     <t>TOTAL</t>
   </si>
   <si>
-    <t>02/10/2025</t>
-  </si>
-  <si>
-    <t>CWM04043 - CASCADE RD AVE STREETSCAPE, PH 1</t>
-  </si>
-  <si>
-    <t>CONC SIDEWALK, 4 IN</t>
-  </si>
-  <si>
-    <t>SY</t>
-  </si>
-  <si>
-    <t>02/06/2025</t>
-  </si>
-  <si>
-    <t>SB62002 - B3CBA2101559-0 BRIDGE CONSTRUCTION BRAMPTON ROAD CONNECTOR SBC JOB NO 732</t>
-  </si>
-  <si>
-    <t>CONC SLOPE PAV, 4 IN</t>
-  </si>
-  <si>
-    <t>CMES60002 - C.R. 817/LEE RD WIDENING AND RECONSTRUCTION</t>
-  </si>
-  <si>
-    <t>DRIVEWAY CONCRETE, 6 in tk</t>
-  </si>
-  <si>
-    <t>02/05/2025</t>
-  </si>
-  <si>
-    <t>WCM69000 - Construction of a roundabout on SR 16 at Columbia Dr and Brumbelow Rd</t>
-  </si>
-  <si>
-    <t>PLAIN PC CONC PVMT CL 3 CONC 10 IN TK (COLOR CONC)</t>
-  </si>
-  <si>
-    <t>UIG49007 - SR 4 GREEN OAK ROAD RD EXT MCDILDA RD</t>
-  </si>
-  <si>
-    <t>REIN CONC APPROACH SLAB - BRIDGE 1</t>
-  </si>
-  <si>
-    <t>02/12/2025</t>
-  </si>
-  <si>
-    <t>02/11/2025</t>
-  </si>
-  <si>
-    <t>REEV50009 - ROUNDABOUT ON SR247 CONN AT HOUSERS MILLER RD</t>
-  </si>
-  <si>
-    <t>PLAIN PC CONC PVMT CL 3 CONC 6 IN THK</t>
-  </si>
-  <si>
-    <t>02/14/2025</t>
-  </si>
-  <si>
-    <t>ERS05070 - Hall, White Sulphur Road</t>
-  </si>
-  <si>
-    <t>DRIVEWAY CONCRETE, 8 IN TK</t>
-  </si>
-  <si>
-    <t>BP02020 - Windy Hill Boulevard</t>
-  </si>
-  <si>
-    <t>Conc Driveway, 4 IN</t>
-  </si>
-  <si>
-    <t>CWM04066 - CONSTRUCTION OF A ROUNDABOUT ON SR 18 @ JACKSON LAKE RD/SNAPPING SHOALS ROAD</t>
-  </si>
-  <si>
-    <t>PLAIN PC CONC PVMT CL 3 CONC 10 IN TK</t>
-  </si>
-  <si>
-    <t>SESD18022 - McDonough Parkway Extension</t>
-  </si>
-  <si>
-    <t>RTS75003 - BETHANY CHURCH ROAD @ QUINBERY ROAD</t>
-  </si>
-  <si>
-    <t>CURB CUT WHEELCHAIR RAMP, TP B</t>
-  </si>
-  <si>
-    <t>EA</t>
-  </si>
-  <si>
-    <t>02/03/2025</t>
-  </si>
-  <si>
-    <t>WRB21009 - Design-Build I-75@ I-24, Ph II</t>
-  </si>
-  <si>
-    <t>REINF CONC SLOPE PAVEMENT</t>
-  </si>
-  <si>
-    <t>02/07/2025</t>
-  </si>
-  <si>
-    <t>02/04/2025</t>
-  </si>
-  <si>
-    <t>CWM04085 - 0015692, GDOT #004 SR 87 @ Bass/Arkwright Rd Roundabout – Bibb County</t>
-  </si>
-  <si>
-    <t>PLAIN CONC PVMT CL 3 CONC, 10 IN</t>
-  </si>
-  <si>
-    <t>ERS05034 - US 441 SR 53 WIDENING</t>
-  </si>
-  <si>
-    <t>ERS05031 - SR 59 BRIDGE REPLACEMENT</t>
-  </si>
-  <si>
-    <t>ECA72001 - RESURFACING SR40</t>
-  </si>
-  <si>
-    <t>DETECTABLE WARNING SURFACE</t>
-  </si>
-  <si>
-    <t>SF</t>
-  </si>
-  <si>
-    <t>02/13/2025</t>
-  </si>
-  <si>
-    <t>02/18/2025</t>
-  </si>
-  <si>
-    <t>02/17/2025</t>
-  </si>
-  <si>
-    <t>BP02019 - SR3 (Northside Drive) Widening &amp; Pedestrian Upgrades</t>
-  </si>
-  <si>
-    <t>02/25/2025</t>
-  </si>
-  <si>
-    <t>TTC00000000001 - TESTING PROJECT FOR SOFTWARE</t>
-  </si>
-  <si>
-    <t>C&amp;G 8x24 IN TP 7</t>
-  </si>
-  <si>
-    <t>LF</t>
-  </si>
-  <si>
-    <t>BAR59008 - CALL 020 US278/SR6 AT SR100</t>
-  </si>
-  <si>
-    <t>PLAIN PC CONC PVMT, CL 3 CONC, 10 IN</t>
-  </si>
-  <si>
-    <t>02/24/2025</t>
-  </si>
-  <si>
-    <t>02/26/2025</t>
-  </si>
-  <si>
-    <t>02/27/2025</t>
-  </si>
-  <si>
-    <t>ERS05051 - WALTON MONROE BYPASS</t>
-  </si>
-  <si>
-    <t>02/21/2025</t>
-  </si>
-  <si>
-    <t>CWM04073 - CONSTR OF A ROUNDABOUT US41/SR247</t>
-  </si>
-  <si>
-    <t>02/28/2025</t>
-  </si>
-  <si>
-    <t>ERS05039 - BUFORD HWY PED IMPROVEMENTS</t>
-  </si>
-  <si>
-    <t>CLASS B CONCRETE RETAINING WALL</t>
-  </si>
-  <si>
-    <t>CY</t>
-  </si>
-  <si>
-    <t>CWM04100 - PI# 0016618 US 280/SR 30 WIDEN &amp; INTRCHNG IMPRV DB, BRYAN</t>
-  </si>
-  <si>
-    <t>PLAIN CONC DITCH PAVING 4 IN</t>
-  </si>
-  <si>
-    <t>ERS05055 - EVERMORE NORTH BLVD</t>
-  </si>
-  <si>
-    <t>03/01/2025</t>
-  </si>
-  <si>
-    <t>Disrupsoft</t>
-  </si>
-  <si>
-    <t>COLD40008 - HARBOUR RIDGE PAVING PROJECT</t>
-  </si>
-  <si>
-    <t>C&amp;G 6X24 IN</t>
-  </si>
-  <si>
-    <t>BAR59010 - EAST CHEROKEE DR. AT MILL CREEK DR. INTERSECTION IMPROVEMENTS #72123</t>
-  </si>
-  <si>
-    <t>CWM04103 - S HOUSTON LAKE ROAD @ SMITHVILLE CHURCH ROAD</t>
-  </si>
-  <si>
-    <t>DRIVEWAY CONC, 4 IN TK</t>
-  </si>
-  <si>
     <t>Total</t>
   </si>
 </sst>
@@ -298,7 +85,7 @@
       <strike val="0"/>
       <u val="none"/>
       <sz val="11"/>
-      <color rgb="FF000000"/>
+      <color theme="1"/>
       <name val="Aptos Narrow"/>
       <scheme val="minor"/>
     </font>
@@ -353,7 +140,7 @@
       <strike val="0"/>
       <u val="single"/>
       <sz val="11"/>
-      <color rgb="FF467886"/>
+      <color theme="10"/>
       <name val="Aptos Narrow"/>
       <scheme val="minor"/>
     </font>
@@ -876,7 +663,7 @@
   <dimension ref="A1:H2306"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" zoomScale="90" zoomScaleNormal="90" showGridLines="false" showRowColHeaders="1">
-      <selection activeCell="H146" sqref="H146:H146"/>
+      <selection activeCell="H11" sqref="H11:H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" defaultColWidth="8.83203125" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1118,3246 +905,688 @@
       </c>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="17" t="s">
+      <c r="F10" s="15"/>
+      <c r="G10" s="16"/>
+      <c r="H10" s="16"/>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="E11" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="17"/>
-      <c r="C10" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="D10" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="E10" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="F10" s="18">
-        <v>0.0</v>
-      </c>
-      <c r="G10" s="19">
-        <v>44.0</v>
-      </c>
-      <c r="H10" s="19">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="B11" s="17"/>
-      <c r="C11" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="D11" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="E11" s="17" t="s">
-        <v>20</v>
-      </c>
       <c r="F11" s="18">
-        <v>50.0</v>
+        <v>0</v>
       </c>
       <c r="G11" s="19">
-        <v>101.0</v>
+        <v>0</v>
       </c>
       <c r="H11" s="19">
-        <v>5050.0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="B12" s="17"/>
-      <c r="C12" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="E12" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="F12" s="18">
-        <v>58.0</v>
-      </c>
-      <c r="G12" s="19">
-        <v>17.0</v>
-      </c>
-      <c r="H12" s="19">
-        <v>986.0</v>
-      </c>
+      <c r="F12" s="15"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="16"/>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="B13" s="17"/>
-      <c r="C13" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="E13" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="F13" s="18">
-        <v>6.1</v>
-      </c>
-      <c r="G13" s="19">
-        <v>67.0</v>
-      </c>
-      <c r="H13" s="19">
-        <v>408.7</v>
-      </c>
+      <c r="F13" s="15"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="16"/>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="B14" s="17"/>
-      <c r="C14" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="D14" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="E14" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="F14" s="18">
-        <v>22.72</v>
-      </c>
-      <c r="G14" s="19">
-        <v>55.0</v>
-      </c>
-      <c r="H14" s="19">
-        <v>1249.6</v>
-      </c>
+      <c r="F14" s="15"/>
+      <c r="G14" s="16"/>
+      <c r="H14" s="16"/>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="B15" s="17"/>
-      <c r="C15" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="E15" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="F15" s="18">
-        <v>6.1</v>
-      </c>
-      <c r="G15" s="19">
-        <v>67.0</v>
-      </c>
-      <c r="H15" s="19">
-        <v>408.7</v>
-      </c>
+      <c r="F15" s="15"/>
+      <c r="G15" s="16"/>
+      <c r="H15" s="16"/>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="B16" s="17"/>
-      <c r="C16" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="D16" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="E16" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="F16" s="18">
-        <v>3.0</v>
-      </c>
-      <c r="G16" s="19">
-        <v>285.0</v>
-      </c>
-      <c r="H16" s="19">
-        <v>855.0</v>
-      </c>
+      <c r="F16" s="15"/>
+      <c r="G16" s="16"/>
+      <c r="H16" s="16"/>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="B17" s="17"/>
-      <c r="C17" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="D17" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="E17" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="F17" s="18">
-        <v>3.0</v>
-      </c>
-      <c r="G17" s="19">
-        <v>385.0</v>
-      </c>
-      <c r="H17" s="19">
-        <v>1155.0</v>
-      </c>
+      <c r="F17" s="15"/>
+      <c r="G17" s="16"/>
+      <c r="H17" s="16"/>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="B18" s="17"/>
-      <c r="C18" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="D18" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="E18" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="F18" s="18">
-        <v>0.0</v>
-      </c>
-      <c r="G18" s="19">
-        <v>313.0</v>
-      </c>
-      <c r="H18" s="19">
-        <v>0.0</v>
-      </c>
+      <c r="F18" s="15"/>
+      <c r="G18" s="16"/>
+      <c r="H18" s="16"/>
     </row>
     <row r="19" spans="1:8">
-      <c r="A19" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="B19" s="17"/>
-      <c r="C19" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="D19" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="E19" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="F19" s="18">
-        <v>0.0</v>
-      </c>
-      <c r="G19" s="19">
-        <v>313.0</v>
-      </c>
-      <c r="H19" s="19">
-        <v>0.0</v>
-      </c>
+      <c r="F19" s="15"/>
+      <c r="G19" s="16"/>
+      <c r="H19" s="16"/>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="B20" s="17"/>
-      <c r="C20" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="D20" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="E20" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="F20" s="18">
-        <v>0.0</v>
-      </c>
-      <c r="G20" s="19">
-        <v>88.0</v>
-      </c>
-      <c r="H20" s="19">
-        <v>0.0</v>
-      </c>
+      <c r="F20" s="15"/>
+      <c r="G20" s="16"/>
+      <c r="H20" s="16"/>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="B21" s="17"/>
-      <c r="C21" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="D21" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="E21" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="F21" s="18">
-        <v>0.0</v>
-      </c>
-      <c r="G21" s="19">
-        <v>88.0</v>
-      </c>
-      <c r="H21" s="19">
-        <v>0.0</v>
-      </c>
+      <c r="F21" s="15"/>
+      <c r="G21" s="16"/>
+      <c r="H21" s="16"/>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="B22" s="17"/>
-      <c r="C22" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="D22" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="E22" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="F22" s="18">
-        <v>0.0</v>
-      </c>
-      <c r="G22" s="19">
-        <v>31.5</v>
-      </c>
-      <c r="H22" s="19">
-        <v>0.0</v>
-      </c>
+      <c r="F22" s="15"/>
+      <c r="G22" s="16"/>
+      <c r="H22" s="16"/>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="B23" s="17"/>
-      <c r="C23" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="D23" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="E23" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="F23" s="18">
-        <v>0.0</v>
-      </c>
-      <c r="G23" s="19">
-        <v>17.25</v>
-      </c>
-      <c r="H23" s="19">
-        <v>0.0</v>
-      </c>
+      <c r="F23" s="15"/>
+      <c r="G23" s="16"/>
+      <c r="H23" s="16"/>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="B24" s="17"/>
-      <c r="C24" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="D24" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="E24" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="F24" s="18">
-        <v>0.0</v>
-      </c>
-      <c r="G24" s="19">
-        <v>25.0</v>
-      </c>
-      <c r="H24" s="19">
-        <v>0.0</v>
-      </c>
+      <c r="F24" s="15"/>
+      <c r="G24" s="16"/>
+      <c r="H24" s="16"/>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="B25" s="17"/>
-      <c r="C25" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="D25" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="E25" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="F25" s="18">
-        <v>0.0</v>
-      </c>
-      <c r="G25" s="19">
-        <v>2600.0</v>
-      </c>
-      <c r="H25" s="19">
-        <v>0.0</v>
-      </c>
+      <c r="F25" s="15"/>
+      <c r="G25" s="16"/>
+      <c r="H25" s="16"/>
     </row>
     <row r="26" spans="1:8">
-      <c r="A26" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="B26" s="17"/>
-      <c r="C26" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="D26" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="E26" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="F26" s="18">
-        <v>0.0</v>
-      </c>
-      <c r="G26" s="19">
-        <v>0.01</v>
-      </c>
-      <c r="H26" s="19">
-        <v>0.0</v>
-      </c>
+      <c r="F26" s="15"/>
+      <c r="G26" s="16"/>
+      <c r="H26" s="16"/>
     </row>
     <row r="27" spans="1:8">
-      <c r="A27" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="B27" s="17"/>
-      <c r="C27" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="D27" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="E27" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="F27" s="18">
-        <v>9.0</v>
-      </c>
-      <c r="G27" s="19">
-        <v>211.0</v>
-      </c>
-      <c r="H27" s="19">
-        <v>1899.0</v>
-      </c>
+      <c r="F27" s="15"/>
+      <c r="G27" s="16"/>
+      <c r="H27" s="16"/>
     </row>
     <row r="28" spans="1:8">
-      <c r="A28" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="B28" s="17"/>
-      <c r="C28" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="D28" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="E28" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="F28" s="18">
-        <v>14.0</v>
-      </c>
-      <c r="G28" s="19">
-        <v>211.0</v>
-      </c>
-      <c r="H28" s="19">
-        <v>2954.0</v>
-      </c>
+      <c r="F28" s="15"/>
+      <c r="G28" s="16"/>
+      <c r="H28" s="16"/>
     </row>
     <row r="29" spans="1:8">
-      <c r="A29" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="B29" s="17"/>
-      <c r="C29" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="D29" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="E29" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="F29" s="18">
-        <v>9.0</v>
-      </c>
-      <c r="G29" s="19">
-        <v>211.0</v>
-      </c>
-      <c r="H29" s="19">
-        <v>1899.0</v>
-      </c>
+      <c r="F29" s="15"/>
+      <c r="G29" s="16"/>
+      <c r="H29" s="16"/>
     </row>
     <row r="30" spans="1:8">
-      <c r="A30" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="B30" s="17"/>
-      <c r="C30" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="D30" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="E30" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="F30" s="18">
-        <v>14.0</v>
-      </c>
-      <c r="G30" s="19">
-        <v>211.0</v>
-      </c>
-      <c r="H30" s="19">
-        <v>2954.0</v>
-      </c>
+      <c r="F30" s="15"/>
+      <c r="G30" s="16"/>
+      <c r="H30" s="16"/>
     </row>
     <row r="31" spans="1:8">
-      <c r="A31" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="B31" s="17"/>
-      <c r="C31" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="D31" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="E31" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="F31" s="18">
-        <v>106.0</v>
-      </c>
-      <c r="G31" s="19">
-        <v>26.0</v>
-      </c>
-      <c r="H31" s="19">
-        <v>2756.0</v>
-      </c>
+      <c r="F31" s="15"/>
+      <c r="G31" s="16"/>
+      <c r="H31" s="16"/>
     </row>
     <row r="32" spans="1:8">
-      <c r="A32" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="B32" s="17"/>
-      <c r="C32" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="D32" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="E32" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="F32" s="18">
-        <v>33.73</v>
-      </c>
-      <c r="G32" s="19">
-        <v>80.0</v>
-      </c>
-      <c r="H32" s="19">
-        <v>2698.4</v>
-      </c>
+      <c r="F32" s="15"/>
+      <c r="G32" s="16"/>
+      <c r="H32" s="16"/>
     </row>
     <row r="33" spans="1:8">
-      <c r="A33" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="B33" s="17"/>
-      <c r="C33" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="D33" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="E33" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="F33" s="18">
-        <v>14.75</v>
-      </c>
-      <c r="G33" s="19">
-        <v>63.0</v>
-      </c>
-      <c r="H33" s="19">
-        <v>929.25</v>
-      </c>
+      <c r="F33" s="15"/>
+      <c r="G33" s="16"/>
+      <c r="H33" s="16"/>
     </row>
     <row r="34" spans="1:8">
-      <c r="A34" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="B34" s="17"/>
-      <c r="C34" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="D34" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="E34" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="F34" s="18">
-        <v>34.79</v>
-      </c>
-      <c r="G34" s="19">
-        <v>63.0</v>
-      </c>
-      <c r="H34" s="19">
-        <v>2191.77</v>
-      </c>
+      <c r="F34" s="15"/>
+      <c r="G34" s="16"/>
+      <c r="H34" s="16"/>
     </row>
     <row r="35" spans="1:8">
-      <c r="A35" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="B35" s="17"/>
-      <c r="C35" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="D35" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="E35" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="F35" s="18">
-        <v>18.01</v>
-      </c>
-      <c r="G35" s="19">
-        <v>63.0</v>
-      </c>
-      <c r="H35" s="19">
-        <v>1134.63</v>
-      </c>
+      <c r="F35" s="15"/>
+      <c r="G35" s="16"/>
+      <c r="H35" s="16"/>
     </row>
     <row r="36" spans="1:8">
-      <c r="A36" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="B36" s="17"/>
-      <c r="C36" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="D36" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="E36" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="F36" s="18">
-        <v>81.5</v>
-      </c>
-      <c r="G36" s="19">
-        <v>63.0</v>
-      </c>
-      <c r="H36" s="19">
-        <v>5134.5</v>
-      </c>
+      <c r="F36" s="15"/>
+      <c r="G36" s="16"/>
+      <c r="H36" s="16"/>
     </row>
     <row r="37" spans="1:8">
-      <c r="A37" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="B37" s="17"/>
-      <c r="C37" s="17" t="s">
-        <v>54</v>
-      </c>
-      <c r="D37" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="E37" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="F37" s="18">
-        <v>21.68</v>
-      </c>
-      <c r="G37" s="19">
-        <v>66.0</v>
-      </c>
-      <c r="H37" s="19">
-        <v>1430.88</v>
-      </c>
+      <c r="F37" s="15"/>
+      <c r="G37" s="16"/>
+      <c r="H37" s="16"/>
     </row>
     <row r="38" spans="1:8">
-      <c r="A38" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="B38" s="17"/>
-      <c r="C38" s="17" t="s">
-        <v>54</v>
-      </c>
-      <c r="D38" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="E38" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="F38" s="18">
-        <v>6.7</v>
-      </c>
-      <c r="G38" s="19">
-        <v>66.0</v>
-      </c>
-      <c r="H38" s="19">
-        <v>442.2</v>
-      </c>
+      <c r="F38" s="15"/>
+      <c r="G38" s="16"/>
+      <c r="H38" s="16"/>
     </row>
     <row r="39" spans="1:8">
-      <c r="A39" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="B39" s="17"/>
-      <c r="C39" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="D39" s="17" t="s">
-        <v>56</v>
-      </c>
-      <c r="E39" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="F39" s="18">
-        <v>0.0</v>
-      </c>
-      <c r="G39" s="19">
-        <v>78.0</v>
-      </c>
-      <c r="H39" s="19">
-        <v>0.0</v>
-      </c>
+      <c r="F39" s="15"/>
+      <c r="G39" s="16"/>
+      <c r="H39" s="16"/>
     </row>
     <row r="40" spans="1:8">
-      <c r="A40" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="B40" s="17"/>
-      <c r="C40" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="D40" s="17" t="s">
-        <v>56</v>
-      </c>
-      <c r="E40" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="F40" s="18">
-        <v>0.0</v>
-      </c>
-      <c r="G40" s="19">
-        <v>78.0</v>
-      </c>
-      <c r="H40" s="19">
-        <v>0.0</v>
-      </c>
+      <c r="F40" s="15"/>
+      <c r="G40" s="16"/>
+      <c r="H40" s="16"/>
     </row>
     <row r="41" spans="1:8">
-      <c r="A41" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="B41" s="17"/>
-      <c r="C41" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="D41" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="E41" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="F41" s="18">
-        <v>0.0</v>
-      </c>
-      <c r="G41" s="19">
-        <v>52.75</v>
-      </c>
-      <c r="H41" s="19">
-        <v>0.0</v>
-      </c>
+      <c r="F41" s="15"/>
+      <c r="G41" s="16"/>
+      <c r="H41" s="16"/>
     </row>
     <row r="42" spans="1:8">
-      <c r="A42" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="B42" s="17"/>
-      <c r="C42" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="D42" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="E42" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="F42" s="18">
-        <v>0.0</v>
-      </c>
-      <c r="G42" s="19">
-        <v>302.0</v>
-      </c>
-      <c r="H42" s="19">
-        <v>0.0</v>
-      </c>
+      <c r="F42" s="15"/>
+      <c r="G42" s="16"/>
+      <c r="H42" s="16"/>
     </row>
     <row r="43" spans="1:8">
-      <c r="A43" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="B43" s="17"/>
-      <c r="C43" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="D43" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="E43" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="F43" s="18">
-        <v>0.0</v>
-      </c>
-      <c r="G43" s="19">
-        <v>83.0</v>
-      </c>
-      <c r="H43" s="19">
-        <v>0.0</v>
-      </c>
+      <c r="F43" s="15"/>
+      <c r="G43" s="16"/>
+      <c r="H43" s="16"/>
     </row>
     <row r="44" spans="1:8">
-      <c r="A44" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="B44" s="17"/>
-      <c r="C44" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="D44" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="E44" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="F44" s="18">
-        <v>0.0</v>
-      </c>
-      <c r="G44" s="19">
-        <v>56.5</v>
-      </c>
-      <c r="H44" s="19">
-        <v>0.0</v>
-      </c>
+      <c r="F44" s="15"/>
+      <c r="G44" s="16"/>
+      <c r="H44" s="16"/>
     </row>
     <row r="45" spans="1:8">
-      <c r="A45" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="B45" s="17"/>
-      <c r="C45" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="D45" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="E45" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="F45" s="18">
-        <v>0.0</v>
-      </c>
-      <c r="G45" s="19">
-        <v>37.0</v>
-      </c>
-      <c r="H45" s="19">
-        <v>0.0</v>
-      </c>
+      <c r="F45" s="15"/>
+      <c r="G45" s="16"/>
+      <c r="H45" s="16"/>
     </row>
     <row r="46" spans="1:8">
-      <c r="A46" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="B46" s="17"/>
-      <c r="C46" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="D46" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="E46" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="F46" s="18">
-        <v>0.0</v>
-      </c>
-      <c r="G46" s="19">
-        <v>380.25</v>
-      </c>
-      <c r="H46" s="19">
-        <v>0.0</v>
-      </c>
+      <c r="F46" s="15"/>
+      <c r="G46" s="16"/>
+      <c r="H46" s="16"/>
     </row>
     <row r="47" spans="1:8">
-      <c r="A47" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="B47" s="17"/>
-      <c r="C47" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="D47" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="E47" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="F47" s="18">
-        <v>0.0</v>
-      </c>
-      <c r="G47" s="19">
-        <v>37.0</v>
-      </c>
-      <c r="H47" s="19">
-        <v>0.0</v>
-      </c>
+      <c r="F47" s="15"/>
+      <c r="G47" s="16"/>
+      <c r="H47" s="16"/>
     </row>
     <row r="48" spans="1:8">
-      <c r="A48" s="17" t="s">
-        <v>62</v>
-      </c>
-      <c r="B48" s="17"/>
-      <c r="C48" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="D48" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="E48" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="F48" s="18">
-        <v>632.0</v>
-      </c>
-      <c r="G48" s="19">
-        <v>35.0</v>
-      </c>
-      <c r="H48" s="19">
-        <v>22120.0</v>
-      </c>
+      <c r="F48" s="15"/>
+      <c r="G48" s="16"/>
+      <c r="H48" s="16"/>
     </row>
     <row r="49" spans="1:8">
-      <c r="A49" s="17" t="s">
-        <v>62</v>
-      </c>
-      <c r="B49" s="17"/>
-      <c r="C49" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="D49" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="E49" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="F49" s="18">
-        <v>320.0</v>
-      </c>
-      <c r="G49" s="19">
-        <v>15.0</v>
-      </c>
-      <c r="H49" s="19">
-        <v>4800.0</v>
-      </c>
+      <c r="F49" s="15"/>
+      <c r="G49" s="16"/>
+      <c r="H49" s="16"/>
     </row>
     <row r="50" spans="1:8">
-      <c r="A50" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="B50" s="17"/>
-      <c r="C50" s="17" t="s">
-        <v>66</v>
-      </c>
-      <c r="D50" s="17" t="s">
-        <v>67</v>
-      </c>
-      <c r="E50" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="F50" s="18">
-        <v>0.0</v>
-      </c>
-      <c r="G50" s="19">
-        <v>254.0</v>
-      </c>
-      <c r="H50" s="19">
-        <v>0.0</v>
-      </c>
+      <c r="F50" s="15"/>
+      <c r="G50" s="16"/>
+      <c r="H50" s="16"/>
     </row>
     <row r="51" spans="1:8">
-      <c r="A51" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="B51" s="17"/>
-      <c r="C51" s="17" t="s">
-        <v>66</v>
-      </c>
-      <c r="D51" s="17" t="s">
-        <v>67</v>
-      </c>
-      <c r="E51" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="F51" s="18">
-        <v>0.0</v>
-      </c>
-      <c r="G51" s="19">
-        <v>38.5</v>
-      </c>
-      <c r="H51" s="19">
-        <v>0.0</v>
-      </c>
+      <c r="F51" s="15"/>
+      <c r="G51" s="16"/>
+      <c r="H51" s="16"/>
     </row>
     <row r="52" spans="1:8">
-      <c r="A52" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="B52" s="17"/>
-      <c r="C52" s="17" t="s">
-        <v>66</v>
-      </c>
-      <c r="D52" s="17" t="s">
-        <v>67</v>
-      </c>
-      <c r="E52" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="F52" s="18">
-        <v>0.0</v>
-      </c>
-      <c r="G52" s="19">
-        <v>38.5</v>
-      </c>
-      <c r="H52" s="19">
-        <v>0.0</v>
-      </c>
+      <c r="F52" s="15"/>
+      <c r="G52" s="16"/>
+      <c r="H52" s="16"/>
     </row>
     <row r="53" spans="1:8">
-      <c r="A53" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="B53" s="17"/>
-      <c r="C53" s="17" t="s">
-        <v>66</v>
-      </c>
-      <c r="D53" s="17" t="s">
-        <v>67</v>
-      </c>
-      <c r="E53" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="F53" s="18">
-        <v>0.0</v>
-      </c>
-      <c r="G53" s="19">
-        <v>69.0</v>
-      </c>
-      <c r="H53" s="19">
-        <v>0.0</v>
-      </c>
+      <c r="F53" s="15"/>
+      <c r="G53" s="16"/>
+      <c r="H53" s="16"/>
     </row>
     <row r="54" spans="1:8">
-      <c r="A54" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="B54" s="17"/>
-      <c r="C54" s="17" t="s">
-        <v>66</v>
-      </c>
-      <c r="D54" s="17" t="s">
-        <v>67</v>
-      </c>
-      <c r="E54" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="F54" s="18">
-        <v>0.0</v>
-      </c>
-      <c r="G54" s="19">
-        <v>600.0</v>
-      </c>
-      <c r="H54" s="19">
-        <v>0.0</v>
-      </c>
+      <c r="F54" s="15"/>
+      <c r="G54" s="16"/>
+      <c r="H54" s="16"/>
     </row>
     <row r="55" spans="1:8">
-      <c r="A55" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="B55" s="17"/>
-      <c r="C55" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="D55" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="E55" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="F55" s="18">
-        <v>0.0</v>
-      </c>
-      <c r="G55" s="19">
-        <v>24.0</v>
-      </c>
-      <c r="H55" s="19">
-        <v>0.0</v>
-      </c>
+      <c r="F55" s="15"/>
+      <c r="G55" s="16"/>
+      <c r="H55" s="16"/>
     </row>
     <row r="56" spans="1:8">
-      <c r="A56" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="B56" s="17"/>
-      <c r="C56" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="D56" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="E56" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="F56" s="18">
-        <v>0.0</v>
-      </c>
-      <c r="G56" s="19">
-        <v>88.0</v>
-      </c>
-      <c r="H56" s="19">
-        <v>0.0</v>
-      </c>
+      <c r="F56" s="15"/>
+      <c r="G56" s="16"/>
+      <c r="H56" s="16"/>
     </row>
     <row r="57" spans="1:8">
-      <c r="A57" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="B57" s="17"/>
-      <c r="C57" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="D57" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="E57" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="F57" s="18">
-        <v>0.0</v>
-      </c>
-      <c r="G57" s="19">
-        <v>31.5</v>
-      </c>
-      <c r="H57" s="19">
-        <v>0.0</v>
-      </c>
+      <c r="F57" s="15"/>
+      <c r="G57" s="16"/>
+      <c r="H57" s="16"/>
     </row>
     <row r="58" spans="1:8">
-      <c r="A58" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="B58" s="17"/>
-      <c r="C58" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="D58" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="E58" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="F58" s="18">
-        <v>0.0</v>
-      </c>
-      <c r="G58" s="19">
-        <v>31.5</v>
-      </c>
-      <c r="H58" s="19">
-        <v>0.0</v>
-      </c>
+      <c r="F58" s="15"/>
+      <c r="G58" s="16"/>
+      <c r="H58" s="16"/>
     </row>
     <row r="59" spans="1:8">
-      <c r="A59" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="B59" s="17"/>
-      <c r="C59" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="D59" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="E59" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="F59" s="18">
-        <v>0.0</v>
-      </c>
-      <c r="G59" s="19">
-        <v>17.25</v>
-      </c>
-      <c r="H59" s="19">
-        <v>0.0</v>
-      </c>
+      <c r="F59" s="15"/>
+      <c r="G59" s="16"/>
+      <c r="H59" s="16"/>
     </row>
     <row r="60" spans="1:8">
-      <c r="A60" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="B60" s="17"/>
-      <c r="C60" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="D60" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="E60" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="F60" s="18">
-        <v>0.0</v>
-      </c>
-      <c r="G60" s="19">
-        <v>70.0</v>
-      </c>
-      <c r="H60" s="19">
-        <v>0.0</v>
-      </c>
+      <c r="F60" s="15"/>
+      <c r="G60" s="16"/>
+      <c r="H60" s="16"/>
     </row>
     <row r="61" spans="1:8">
-      <c r="A61" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="B61" s="17"/>
-      <c r="C61" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="D61" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="E61" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="F61" s="18">
-        <v>0.0</v>
-      </c>
-      <c r="G61" s="19">
-        <v>30.0</v>
-      </c>
-      <c r="H61" s="19">
-        <v>0.0</v>
-      </c>
+      <c r="F61" s="15"/>
+      <c r="G61" s="16"/>
+      <c r="H61" s="16"/>
     </row>
     <row r="62" spans="1:8">
-      <c r="A62" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="B62" s="17"/>
-      <c r="C62" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="D62" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="E62" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="F62" s="18">
-        <v>0.0</v>
-      </c>
-      <c r="G62" s="19">
-        <v>31.5</v>
-      </c>
-      <c r="H62" s="19">
-        <v>0.0</v>
-      </c>
+      <c r="F62" s="15"/>
+      <c r="G62" s="16"/>
+      <c r="H62" s="16"/>
     </row>
     <row r="63" spans="1:8">
-      <c r="A63" s="17" t="s">
-        <v>62</v>
-      </c>
-      <c r="B63" s="17"/>
-      <c r="C63" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="D63" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="E63" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="F63" s="18">
-        <v>0.0</v>
-      </c>
-      <c r="G63" s="19">
-        <v>31.5</v>
-      </c>
-      <c r="H63" s="19">
-        <v>0.0</v>
-      </c>
+      <c r="F63" s="15"/>
+      <c r="G63" s="16"/>
+      <c r="H63" s="16"/>
     </row>
     <row r="64" spans="1:8">
-      <c r="A64" s="17" t="s">
-        <v>62</v>
-      </c>
-      <c r="B64" s="17"/>
-      <c r="C64" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="D64" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="E64" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="F64" s="18">
-        <v>0.0</v>
-      </c>
-      <c r="G64" s="19">
-        <v>148.0</v>
-      </c>
-      <c r="H64" s="19">
-        <v>0.0</v>
-      </c>
+      <c r="F64" s="15"/>
+      <c r="G64" s="16"/>
+      <c r="H64" s="16"/>
     </row>
     <row r="65" spans="1:8">
-      <c r="A65" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="B65" s="17"/>
-      <c r="C65" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="D65" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="E65" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="F65" s="18">
-        <v>0.0</v>
-      </c>
-      <c r="G65" s="19">
-        <v>52.75</v>
-      </c>
-      <c r="H65" s="19">
-        <v>0.0</v>
-      </c>
+      <c r="F65" s="15"/>
+      <c r="G65" s="16"/>
+      <c r="H65" s="16"/>
     </row>
     <row r="66" spans="1:8">
-      <c r="A66" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="B66" s="17"/>
-      <c r="C66" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="D66" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="E66" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="F66" s="18">
-        <v>0.0</v>
-      </c>
-      <c r="G66" s="19">
-        <v>56.5</v>
-      </c>
-      <c r="H66" s="19">
-        <v>0.0</v>
-      </c>
+      <c r="F66" s="15"/>
+      <c r="G66" s="16"/>
+      <c r="H66" s="16"/>
     </row>
     <row r="67" spans="1:8">
-      <c r="A67" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="B67" s="17"/>
-      <c r="C67" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="D67" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="E67" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="F67" s="18">
-        <v>0.0</v>
-      </c>
-      <c r="G67" s="19">
-        <v>44.0</v>
-      </c>
-      <c r="H67" s="19">
-        <v>0.0</v>
-      </c>
+      <c r="F67" s="15"/>
+      <c r="G67" s="16"/>
+      <c r="H67" s="16"/>
     </row>
     <row r="68" spans="1:8">
-      <c r="A68" s="17" t="s">
-        <v>62</v>
-      </c>
-      <c r="B68" s="17"/>
-      <c r="C68" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="D68" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="E68" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="F68" s="18">
-        <v>0.0</v>
-      </c>
-      <c r="G68" s="19">
-        <v>83.0</v>
-      </c>
-      <c r="H68" s="19">
-        <v>0.0</v>
-      </c>
+      <c r="F68" s="15"/>
+      <c r="G68" s="16"/>
+      <c r="H68" s="16"/>
     </row>
     <row r="69" spans="1:8">
-      <c r="A69" s="17" t="s">
-        <v>62</v>
-      </c>
-      <c r="B69" s="17"/>
-      <c r="C69" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="D69" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="E69" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="F69" s="18">
-        <v>0.0</v>
-      </c>
-      <c r="G69" s="19">
-        <v>44.0</v>
-      </c>
-      <c r="H69" s="19">
-        <v>0.0</v>
-      </c>
+      <c r="F69" s="15"/>
+      <c r="G69" s="16"/>
+      <c r="H69" s="16"/>
     </row>
     <row r="70" spans="1:8">
-      <c r="A70" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="B70" s="17"/>
-      <c r="C70" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="D70" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="E70" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="F70" s="18">
-        <v>0.0</v>
-      </c>
-      <c r="G70" s="19">
-        <v>83.0</v>
-      </c>
-      <c r="H70" s="19">
-        <v>0.0</v>
-      </c>
+      <c r="F70" s="15"/>
+      <c r="G70" s="16"/>
+      <c r="H70" s="16"/>
     </row>
     <row r="71" spans="1:8">
-      <c r="A71" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="B71" s="17"/>
-      <c r="C71" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="D71" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="E71" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="F71" s="18">
-        <v>0.0</v>
-      </c>
-      <c r="G71" s="19">
-        <v>56.5</v>
-      </c>
-      <c r="H71" s="19">
-        <v>0.0</v>
-      </c>
+      <c r="F71" s="15"/>
+      <c r="G71" s="16"/>
+      <c r="H71" s="16"/>
     </row>
     <row r="72" spans="1:8">
-      <c r="A72" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="B72" s="17"/>
-      <c r="C72" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="D72" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="E72" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="F72" s="18">
-        <v>0.0</v>
-      </c>
-      <c r="G72" s="19">
-        <v>93.0</v>
-      </c>
-      <c r="H72" s="19">
-        <v>0.0</v>
-      </c>
+      <c r="F72" s="15"/>
+      <c r="G72" s="16"/>
+      <c r="H72" s="16"/>
     </row>
     <row r="73" spans="1:8">
-      <c r="A73" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="B73" s="17"/>
-      <c r="C73" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="D73" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="E73" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="F73" s="18">
-        <v>0.0</v>
-      </c>
-      <c r="G73" s="19">
-        <v>44.0</v>
-      </c>
-      <c r="H73" s="19">
-        <v>0.0</v>
-      </c>
+      <c r="F73" s="15"/>
+      <c r="G73" s="16"/>
+      <c r="H73" s="16"/>
     </row>
     <row r="74" spans="1:8">
-      <c r="A74" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="B74" s="17"/>
-      <c r="C74" s="17" t="s">
-        <v>71</v>
-      </c>
-      <c r="D74" s="17" t="s">
-        <v>67</v>
-      </c>
-      <c r="E74" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="F74" s="18">
-        <v>0.0</v>
-      </c>
-      <c r="G74" s="19">
-        <v>47.0</v>
-      </c>
-      <c r="H74" s="19">
-        <v>0.0</v>
-      </c>
+      <c r="F74" s="15"/>
+      <c r="G74" s="16"/>
+      <c r="H74" s="16"/>
     </row>
     <row r="75" spans="1:8">
-      <c r="A75" s="17" t="s">
-        <v>72</v>
-      </c>
-      <c r="B75" s="17"/>
-      <c r="C75" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="D75" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="E75" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="F75" s="18">
-        <v>0.0</v>
-      </c>
-      <c r="G75" s="19">
-        <v>25.0</v>
-      </c>
-      <c r="H75" s="19">
-        <v>0.0</v>
-      </c>
+      <c r="F75" s="15"/>
+      <c r="G75" s="16"/>
+      <c r="H75" s="16"/>
     </row>
     <row r="76" spans="1:8">
-      <c r="A76" s="17" t="s">
-        <v>72</v>
-      </c>
-      <c r="B76" s="17"/>
-      <c r="C76" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="D76" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="E76" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="F76" s="18">
-        <v>0.0</v>
-      </c>
-      <c r="G76" s="19">
-        <v>30.0</v>
-      </c>
-      <c r="H76" s="19">
-        <v>0.0</v>
-      </c>
+      <c r="F76" s="15"/>
+      <c r="G76" s="16"/>
+      <c r="H76" s="16"/>
     </row>
     <row r="77" spans="1:8">
-      <c r="A77" s="17" t="s">
-        <v>72</v>
-      </c>
-      <c r="B77" s="17"/>
-      <c r="C77" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="D77" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="E77" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="F77" s="18">
-        <v>0.0</v>
-      </c>
-      <c r="G77" s="19">
-        <v>27.0</v>
-      </c>
-      <c r="H77" s="19">
-        <v>0.0</v>
-      </c>
+      <c r="F77" s="15"/>
+      <c r="G77" s="16"/>
+      <c r="H77" s="16"/>
     </row>
     <row r="78" spans="1:8">
-      <c r="A78" s="17" t="s">
-        <v>72</v>
-      </c>
-      <c r="B78" s="17"/>
-      <c r="C78" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="D78" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="E78" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="F78" s="18">
-        <v>0.0</v>
-      </c>
-      <c r="G78" s="19">
-        <v>123.0</v>
-      </c>
-      <c r="H78" s="19">
-        <v>0.0</v>
-      </c>
+      <c r="F78" s="15"/>
+      <c r="G78" s="16"/>
+      <c r="H78" s="16"/>
     </row>
     <row r="79" spans="1:8">
-      <c r="A79" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="B79" s="17"/>
-      <c r="C79" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="D79" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="E79" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="F79" s="18">
-        <v>0.0</v>
-      </c>
-      <c r="G79" s="19">
-        <v>124.0</v>
-      </c>
-      <c r="H79" s="19">
-        <v>0.0</v>
-      </c>
+      <c r="F79" s="15"/>
+      <c r="G79" s="16"/>
+      <c r="H79" s="16"/>
     </row>
     <row r="80" spans="1:8">
-      <c r="A80" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="B80" s="17"/>
-      <c r="C80" s="17" t="s">
-        <v>73</v>
-      </c>
-      <c r="D80" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="E80" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="F80" s="18">
-        <v>0.0</v>
-      </c>
-      <c r="G80" s="19">
-        <v>28.0</v>
-      </c>
-      <c r="H80" s="19">
-        <v>0.0</v>
-      </c>
+      <c r="F80" s="15"/>
+      <c r="G80" s="16"/>
+      <c r="H80" s="16"/>
     </row>
     <row r="81" spans="1:8">
-      <c r="A81" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="B81" s="17"/>
-      <c r="C81" s="17" t="s">
-        <v>73</v>
-      </c>
-      <c r="D81" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="E81" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="F81" s="18">
-        <v>0.0</v>
-      </c>
-      <c r="G81" s="19">
-        <v>28.0</v>
-      </c>
-      <c r="H81" s="19">
-        <v>0.0</v>
-      </c>
+      <c r="F81" s="15"/>
+      <c r="G81" s="16"/>
+      <c r="H81" s="16"/>
     </row>
     <row r="82" spans="1:8">
-      <c r="A82" s="17" t="s">
-        <v>72</v>
-      </c>
-      <c r="B82" s="17"/>
-      <c r="C82" s="17" t="s">
-        <v>73</v>
-      </c>
-      <c r="D82" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="E82" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="F82" s="18">
-        <v>0.0</v>
-      </c>
-      <c r="G82" s="19">
-        <v>28.0</v>
-      </c>
-      <c r="H82" s="19">
-        <v>0.0</v>
-      </c>
+      <c r="F82" s="15"/>
+      <c r="G82" s="16"/>
+      <c r="H82" s="16"/>
     </row>
     <row r="83" spans="1:8">
-      <c r="A83" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="B83" s="17"/>
-      <c r="C83" s="17" t="s">
-        <v>73</v>
-      </c>
-      <c r="D83" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="E83" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="F83" s="18">
-        <v>0.0</v>
-      </c>
-      <c r="G83" s="19">
-        <v>325.0</v>
-      </c>
-      <c r="H83" s="19">
-        <v>0.0</v>
-      </c>
+      <c r="F83" s="15"/>
+      <c r="G83" s="16"/>
+      <c r="H83" s="16"/>
     </row>
     <row r="84" spans="1:8">
-      <c r="A84" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="B84" s="17"/>
-      <c r="C84" s="17" t="s">
-        <v>73</v>
-      </c>
-      <c r="D84" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="E84" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="F84" s="18">
-        <v>0.0</v>
-      </c>
-      <c r="G84" s="19">
-        <v>73.0</v>
-      </c>
-      <c r="H84" s="19">
-        <v>0.0</v>
-      </c>
+      <c r="F84" s="15"/>
+      <c r="G84" s="16"/>
+      <c r="H84" s="16"/>
     </row>
     <row r="85" spans="1:8">
-      <c r="A85" s="17" t="s">
-        <v>62</v>
-      </c>
-      <c r="B85" s="17"/>
-      <c r="C85" s="17" t="s">
-        <v>73</v>
-      </c>
-      <c r="D85" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="E85" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="F85" s="18">
-        <v>0.0</v>
-      </c>
-      <c r="G85" s="19">
-        <v>157.0</v>
-      </c>
-      <c r="H85" s="19">
-        <v>0.0</v>
-      </c>
+      <c r="F85" s="15"/>
+      <c r="G85" s="16"/>
+      <c r="H85" s="16"/>
     </row>
     <row r="86" spans="1:8">
-      <c r="A86" s="17" t="s">
-        <v>62</v>
-      </c>
-      <c r="B86" s="17"/>
-      <c r="C86" s="17" t="s">
-        <v>73</v>
-      </c>
-      <c r="D86" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="E86" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="F86" s="18">
-        <v>0.0</v>
-      </c>
-      <c r="G86" s="19">
-        <v>73.0</v>
-      </c>
-      <c r="H86" s="19">
-        <v>0.0</v>
-      </c>
+      <c r="F86" s="15"/>
+      <c r="G86" s="16"/>
+      <c r="H86" s="16"/>
     </row>
     <row r="87" spans="1:8">
-      <c r="A87" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="B87" s="17"/>
-      <c r="C87" s="17" t="s">
-        <v>73</v>
-      </c>
-      <c r="D87" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="E87" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="F87" s="18">
-        <v>0.0</v>
-      </c>
-      <c r="G87" s="19">
-        <v>157.0</v>
-      </c>
-      <c r="H87" s="19">
-        <v>0.0</v>
-      </c>
+      <c r="F87" s="15"/>
+      <c r="G87" s="16"/>
+      <c r="H87" s="16"/>
     </row>
     <row r="88" spans="1:8">
-      <c r="A88" s="17" t="s">
-        <v>74</v>
-      </c>
-      <c r="B88" s="17"/>
-      <c r="C88" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="D88" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="E88" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="F88" s="18">
-        <v>0.0</v>
-      </c>
-      <c r="G88" s="19">
-        <v>44.0</v>
-      </c>
-      <c r="H88" s="19">
-        <v>0.0</v>
-      </c>
+      <c r="F88" s="15"/>
+      <c r="G88" s="16"/>
+      <c r="H88" s="16"/>
     </row>
     <row r="89" spans="1:8">
-      <c r="A89" s="17" t="s">
-        <v>74</v>
-      </c>
-      <c r="B89" s="17"/>
-      <c r="C89" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="D89" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="E89" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="F89" s="18">
-        <v>0.0</v>
-      </c>
-      <c r="G89" s="19">
-        <v>56.5</v>
-      </c>
-      <c r="H89" s="19">
-        <v>0.0</v>
-      </c>
+      <c r="F89" s="15"/>
+      <c r="G89" s="16"/>
+      <c r="H89" s="16"/>
     </row>
     <row r="90" spans="1:8">
-      <c r="A90" s="17" t="s">
-        <v>62</v>
-      </c>
-      <c r="B90" s="17"/>
-      <c r="C90" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="D90" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="E90" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="F90" s="18">
-        <v>0.0</v>
-      </c>
-      <c r="G90" s="19">
-        <v>650.0</v>
-      </c>
-      <c r="H90" s="19">
-        <v>0.0</v>
-      </c>
+      <c r="F90" s="15"/>
+      <c r="G90" s="16"/>
+      <c r="H90" s="16"/>
     </row>
     <row r="91" spans="1:8">
-      <c r="A91" s="17" t="s">
-        <v>74</v>
-      </c>
-      <c r="B91" s="17"/>
-      <c r="C91" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="D91" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="E91" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="F91" s="18">
-        <v>0.0</v>
-      </c>
-      <c r="G91" s="19">
-        <v>650.0</v>
-      </c>
-      <c r="H91" s="19">
-        <v>0.0</v>
-      </c>
+      <c r="F91" s="15"/>
+      <c r="G91" s="16"/>
+      <c r="H91" s="16"/>
     </row>
     <row r="92" spans="1:8">
-      <c r="A92" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="B92" s="17"/>
-      <c r="C92" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="D92" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="E92" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="F92" s="18">
-        <v>0.0</v>
-      </c>
-      <c r="G92" s="19">
-        <v>30.0</v>
-      </c>
-      <c r="H92" s="19">
-        <v>0.0</v>
-      </c>
+      <c r="F92" s="15"/>
+      <c r="G92" s="16"/>
+      <c r="H92" s="16"/>
     </row>
     <row r="93" spans="1:8">
-      <c r="A93" s="17" t="s">
-        <v>62</v>
-      </c>
-      <c r="B93" s="17"/>
-      <c r="C93" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="D93" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="E93" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="F93" s="18">
-        <v>0.0</v>
-      </c>
-      <c r="G93" s="19">
-        <v>30.0</v>
-      </c>
-      <c r="H93" s="19">
-        <v>0.0</v>
-      </c>
+      <c r="F93" s="15"/>
+      <c r="G93" s="16"/>
+      <c r="H93" s="16"/>
     </row>
     <row r="94" spans="1:8">
-      <c r="A94" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="B94" s="17"/>
-      <c r="C94" s="17" t="s">
-        <v>66</v>
-      </c>
-      <c r="D94" s="17" t="s">
-        <v>67</v>
-      </c>
-      <c r="E94" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="F94" s="18">
-        <v>0.0</v>
-      </c>
-      <c r="G94" s="19">
-        <v>254.0</v>
-      </c>
-      <c r="H94" s="19">
-        <v>0.0</v>
-      </c>
+      <c r="F94" s="15"/>
+      <c r="G94" s="16"/>
+      <c r="H94" s="16"/>
     </row>
     <row r="95" spans="1:8">
-      <c r="A95" s="17" t="s">
-        <v>74</v>
-      </c>
-      <c r="B95" s="17"/>
-      <c r="C95" s="17" t="s">
-        <v>71</v>
-      </c>
-      <c r="D95" s="17" t="s">
-        <v>67</v>
-      </c>
-      <c r="E95" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="F95" s="18">
-        <v>0.0</v>
-      </c>
-      <c r="G95" s="19">
-        <v>47.0</v>
-      </c>
-      <c r="H95" s="19">
-        <v>0.0</v>
-      </c>
+      <c r="F95" s="15"/>
+      <c r="G95" s="16"/>
+      <c r="H95" s="16"/>
     </row>
     <row r="96" spans="1:8">
-      <c r="A96" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="B96" s="17"/>
-      <c r="C96" s="17" t="s">
-        <v>73</v>
-      </c>
-      <c r="D96" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="E96" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="F96" s="18">
-        <v>0.0</v>
-      </c>
-      <c r="G96" s="19">
-        <v>73.0</v>
-      </c>
-      <c r="H96" s="19">
-        <v>0.0</v>
-      </c>
+      <c r="F96" s="15"/>
+      <c r="G96" s="16"/>
+      <c r="H96" s="16"/>
     </row>
     <row r="97" spans="1:8">
-      <c r="A97" s="17" t="s">
-        <v>74</v>
-      </c>
-      <c r="B97" s="17"/>
-      <c r="C97" s="17" t="s">
-        <v>73</v>
-      </c>
-      <c r="D97" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="E97" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="F97" s="18">
-        <v>0.0</v>
-      </c>
-      <c r="G97" s="19">
-        <v>73.0</v>
-      </c>
-      <c r="H97" s="19">
-        <v>0.0</v>
-      </c>
+      <c r="F97" s="15"/>
+      <c r="G97" s="16"/>
+      <c r="H97" s="16"/>
     </row>
     <row r="98" spans="1:8">
-      <c r="A98" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="B98" s="17"/>
-      <c r="C98" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="D98" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="E98" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="F98" s="18">
-        <v>0.0</v>
-      </c>
-      <c r="G98" s="19">
-        <v>31.5</v>
-      </c>
-      <c r="H98" s="19">
-        <v>0.0</v>
-      </c>
+      <c r="F98" s="15"/>
+      <c r="G98" s="16"/>
+      <c r="H98" s="16"/>
     </row>
     <row r="99" spans="1:8">
-      <c r="A99" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="B99" s="17"/>
-      <c r="C99" s="17" t="s">
-        <v>78</v>
-      </c>
-      <c r="D99" s="17" t="s">
-        <v>79</v>
-      </c>
-      <c r="E99" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="F99" s="18">
-        <v>0.0</v>
-      </c>
-      <c r="G99" s="19">
-        <v>58.0</v>
-      </c>
-      <c r="H99" s="19">
-        <v>0.0</v>
-      </c>
+      <c r="F99" s="15"/>
+      <c r="G99" s="16"/>
+      <c r="H99" s="16"/>
     </row>
     <row r="100" spans="1:8">
-      <c r="A100" s="17" t="s">
-        <v>62</v>
-      </c>
-      <c r="B100" s="17"/>
-      <c r="C100" s="17" t="s">
-        <v>78</v>
-      </c>
-      <c r="D100" s="17" t="s">
-        <v>79</v>
-      </c>
-      <c r="E100" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="F100" s="18">
-        <v>0.0</v>
-      </c>
-      <c r="G100" s="19">
-        <v>58.0</v>
-      </c>
-      <c r="H100" s="19">
-        <v>0.0</v>
-      </c>
+      <c r="F100" s="15"/>
+      <c r="G100" s="16"/>
+      <c r="H100" s="16"/>
     </row>
     <row r="101" spans="1:8">
-      <c r="A101" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="B101" s="17"/>
-      <c r="C101" s="17" t="s">
-        <v>78</v>
-      </c>
-      <c r="D101" s="17" t="s">
-        <v>79</v>
-      </c>
-      <c r="E101" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="F101" s="18">
-        <v>0.0</v>
-      </c>
-      <c r="G101" s="19">
-        <v>58.0</v>
-      </c>
-      <c r="H101" s="19">
-        <v>0.0</v>
-      </c>
+      <c r="F101" s="15"/>
+      <c r="G101" s="16"/>
+      <c r="H101" s="16"/>
     </row>
     <row r="102" spans="1:8">
-      <c r="A102" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="B102" s="17"/>
-      <c r="C102" s="17" t="s">
-        <v>78</v>
-      </c>
-      <c r="D102" s="17" t="s">
-        <v>79</v>
-      </c>
-      <c r="E102" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="F102" s="18">
-        <v>0.0</v>
-      </c>
-      <c r="G102" s="19">
-        <v>2300.0</v>
-      </c>
-      <c r="H102" s="19">
-        <v>0.0</v>
-      </c>
+      <c r="F102" s="15"/>
+      <c r="G102" s="16"/>
+      <c r="H102" s="16"/>
     </row>
     <row r="103" spans="1:8">
-      <c r="A103" s="17" t="s">
-        <v>74</v>
-      </c>
-      <c r="B103" s="17"/>
-      <c r="C103" s="17" t="s">
-        <v>78</v>
-      </c>
-      <c r="D103" s="17" t="s">
-        <v>79</v>
-      </c>
-      <c r="E103" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="F103" s="18">
-        <v>0.0</v>
-      </c>
-      <c r="G103" s="19">
-        <v>58.0</v>
-      </c>
-      <c r="H103" s="19">
-        <v>0.0</v>
-      </c>
+      <c r="F103" s="15"/>
+      <c r="G103" s="16"/>
+      <c r="H103" s="16"/>
     </row>
     <row r="104" spans="1:8">
-      <c r="A104" s="17" t="s">
-        <v>74</v>
-      </c>
-      <c r="B104" s="17"/>
-      <c r="C104" s="17" t="s">
-        <v>78</v>
-      </c>
-      <c r="D104" s="17" t="s">
-        <v>79</v>
-      </c>
-      <c r="E104" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="F104" s="18">
-        <v>0.0</v>
-      </c>
-      <c r="G104" s="19">
-        <v>2300.0</v>
-      </c>
-      <c r="H104" s="19">
-        <v>0.0</v>
-      </c>
+      <c r="F104" s="15"/>
+      <c r="G104" s="16"/>
+      <c r="H104" s="16"/>
     </row>
     <row r="105" spans="1:8">
-      <c r="A105" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="B105" s="17"/>
-      <c r="C105" s="17" t="s">
-        <v>80</v>
-      </c>
-      <c r="D105" s="17" t="s">
-        <v>67</v>
-      </c>
-      <c r="E105" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="F105" s="18">
-        <v>0.0</v>
-      </c>
-      <c r="G105" s="19">
-        <v>90.0</v>
-      </c>
-      <c r="H105" s="19">
-        <v>0.0</v>
-      </c>
+      <c r="F105" s="15"/>
+      <c r="G105" s="16"/>
+      <c r="H105" s="16"/>
     </row>
     <row r="106" spans="1:8">
-      <c r="A106" s="17" t="s">
-        <v>62</v>
-      </c>
-      <c r="B106" s="17"/>
-      <c r="C106" s="17" t="s">
-        <v>80</v>
-      </c>
-      <c r="D106" s="17" t="s">
-        <v>67</v>
-      </c>
-      <c r="E106" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="F106" s="18">
-        <v>0.0</v>
-      </c>
-      <c r="G106" s="19">
-        <v>30.5</v>
-      </c>
-      <c r="H106" s="19">
-        <v>0.0</v>
-      </c>
+      <c r="F106" s="15"/>
+      <c r="G106" s="16"/>
+      <c r="H106" s="16"/>
     </row>
     <row r="107" spans="1:8">
-      <c r="A107" s="17" t="s">
-        <v>62</v>
-      </c>
-      <c r="B107" s="17"/>
-      <c r="C107" s="17" t="s">
-        <v>80</v>
-      </c>
-      <c r="D107" s="17" t="s">
-        <v>67</v>
-      </c>
-      <c r="E107" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="F107" s="18">
-        <v>0.0</v>
-      </c>
-      <c r="G107" s="19">
-        <v>52.0</v>
-      </c>
-      <c r="H107" s="19">
-        <v>0.0</v>
-      </c>
+      <c r="F107" s="15"/>
+      <c r="G107" s="16"/>
+      <c r="H107" s="16"/>
     </row>
     <row r="108" spans="1:8">
-      <c r="A108" s="17" t="s">
-        <v>62</v>
-      </c>
-      <c r="B108" s="17"/>
-      <c r="C108" s="17" t="s">
-        <v>80</v>
-      </c>
-      <c r="D108" s="17" t="s">
-        <v>67</v>
-      </c>
-      <c r="E108" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="F108" s="18">
-        <v>0.0</v>
-      </c>
-      <c r="G108" s="19">
-        <v>90.0</v>
-      </c>
-      <c r="H108" s="19">
-        <v>0.0</v>
-      </c>
+      <c r="F108" s="15"/>
+      <c r="G108" s="16"/>
+      <c r="H108" s="16"/>
     </row>
     <row r="109" spans="1:8">
-      <c r="A109" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="B109" s="17"/>
-      <c r="C109" s="17" t="s">
-        <v>80</v>
-      </c>
-      <c r="D109" s="17" t="s">
-        <v>67</v>
-      </c>
-      <c r="E109" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="F109" s="18">
-        <v>0.0</v>
-      </c>
-      <c r="G109" s="19">
-        <v>30.5</v>
-      </c>
-      <c r="H109" s="19">
-        <v>0.0</v>
-      </c>
+      <c r="F109" s="15"/>
+      <c r="G109" s="16"/>
+      <c r="H109" s="16"/>
     </row>
     <row r="110" spans="1:8">
-      <c r="A110" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="B110" s="17"/>
-      <c r="C110" s="17" t="s">
-        <v>80</v>
-      </c>
-      <c r="D110" s="17" t="s">
-        <v>67</v>
-      </c>
-      <c r="E110" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="F110" s="18">
-        <v>0.0</v>
-      </c>
-      <c r="G110" s="19">
-        <v>26.0</v>
-      </c>
-      <c r="H110" s="19">
-        <v>0.0</v>
-      </c>
+      <c r="F110" s="15"/>
+      <c r="G110" s="16"/>
+      <c r="H110" s="16"/>
     </row>
     <row r="111" spans="1:8">
-      <c r="A111" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="B111" s="17"/>
-      <c r="C111" s="17" t="s">
-        <v>80</v>
-      </c>
-      <c r="D111" s="17" t="s">
-        <v>67</v>
-      </c>
-      <c r="E111" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="F111" s="18">
-        <v>0.0</v>
-      </c>
-      <c r="G111" s="19">
-        <v>52.0</v>
-      </c>
-      <c r="H111" s="19">
-        <v>0.0</v>
-      </c>
+      <c r="F111" s="15"/>
+      <c r="G111" s="16"/>
+      <c r="H111" s="16"/>
     </row>
     <row r="112" spans="1:8">
-      <c r="A112" s="17" t="s">
-        <v>74</v>
-      </c>
-      <c r="B112" s="17"/>
-      <c r="C112" s="17" t="s">
-        <v>80</v>
-      </c>
-      <c r="D112" s="17" t="s">
-        <v>67</v>
-      </c>
-      <c r="E112" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="F112" s="18">
-        <v>0.0</v>
-      </c>
-      <c r="G112" s="19">
-        <v>52.0</v>
-      </c>
-      <c r="H112" s="19">
-        <v>0.0</v>
-      </c>
+      <c r="F112" s="15"/>
+      <c r="G112" s="16"/>
+      <c r="H112" s="16"/>
     </row>
     <row r="113" spans="1:8">
-      <c r="A113" s="17" t="s">
-        <v>81</v>
-      </c>
-      <c r="B113" s="17" t="s">
-        <v>82</v>
-      </c>
-      <c r="C113" s="17" t="s">
-        <v>80</v>
-      </c>
-      <c r="D113" s="17" t="s">
-        <v>67</v>
-      </c>
-      <c r="E113" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="F113" s="18">
-        <v>10.0</v>
-      </c>
-      <c r="G113" s="19">
-        <v>90.0</v>
-      </c>
-      <c r="H113" s="19">
-        <v>900.0</v>
-      </c>
+      <c r="F113" s="15"/>
+      <c r="G113" s="16"/>
+      <c r="H113" s="16"/>
     </row>
     <row r="114" spans="1:8">
-      <c r="A114" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="B114" s="17"/>
-      <c r="C114" s="17" t="s">
-        <v>54</v>
-      </c>
-      <c r="D114" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="E114" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="F114" s="18">
-        <v>0.0</v>
-      </c>
-      <c r="G114" s="19">
-        <v>35.0</v>
-      </c>
-      <c r="H114" s="19">
-        <v>0.0</v>
-      </c>
+      <c r="F114" s="15"/>
+      <c r="G114" s="16"/>
+      <c r="H114" s="16"/>
     </row>
     <row r="115" spans="1:8">
-      <c r="A115" s="17" t="s">
-        <v>62</v>
-      </c>
-      <c r="B115" s="17"/>
-      <c r="C115" s="17" t="s">
-        <v>54</v>
-      </c>
-      <c r="D115" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="E115" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="F115" s="18">
-        <v>0.0</v>
-      </c>
-      <c r="G115" s="19">
-        <v>35.0</v>
-      </c>
-      <c r="H115" s="19">
-        <v>0.0</v>
-      </c>
+      <c r="F115" s="15"/>
+      <c r="G115" s="16"/>
+      <c r="H115" s="16"/>
     </row>
     <row r="116" spans="1:8">
-      <c r="A116" s="17" t="s">
-        <v>62</v>
-      </c>
-      <c r="B116" s="17"/>
-      <c r="C116" s="17" t="s">
-        <v>54</v>
-      </c>
-      <c r="D116" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="E116" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="F116" s="18">
-        <v>0.0</v>
-      </c>
-      <c r="G116" s="19">
-        <v>63.0</v>
-      </c>
-      <c r="H116" s="19">
-        <v>0.0</v>
-      </c>
+      <c r="F116" s="15"/>
+      <c r="G116" s="16"/>
+      <c r="H116" s="16"/>
     </row>
     <row r="117" spans="1:8">
-      <c r="A117" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="B117" s="17"/>
-      <c r="C117" s="17" t="s">
-        <v>54</v>
-      </c>
-      <c r="D117" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="E117" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="F117" s="18">
-        <v>0.0</v>
-      </c>
-      <c r="G117" s="19">
-        <v>63.0</v>
-      </c>
-      <c r="H117" s="19">
-        <v>0.0</v>
-      </c>
+      <c r="F117" s="15"/>
+      <c r="G117" s="16"/>
+      <c r="H117" s="16"/>
     </row>
     <row r="118" spans="1:8">
-      <c r="A118" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="B118" s="17"/>
-      <c r="C118" s="17" t="s">
-        <v>54</v>
-      </c>
-      <c r="D118" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="E118" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="F118" s="18">
-        <v>0.0</v>
-      </c>
-      <c r="G118" s="19">
-        <v>35.0</v>
-      </c>
-      <c r="H118" s="19">
-        <v>0.0</v>
-      </c>
+      <c r="F118" s="15"/>
+      <c r="G118" s="16"/>
+      <c r="H118" s="16"/>
     </row>
     <row r="119" spans="1:8">
-      <c r="A119" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="B119" s="17"/>
-      <c r="C119" s="17" t="s">
-        <v>54</v>
-      </c>
-      <c r="D119" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="E119" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="F119" s="18">
-        <v>0.0</v>
-      </c>
-      <c r="G119" s="19">
-        <v>35.0</v>
-      </c>
-      <c r="H119" s="19">
-        <v>0.0</v>
-      </c>
+      <c r="F119" s="15"/>
+      <c r="G119" s="16"/>
+      <c r="H119" s="16"/>
     </row>
     <row r="120" spans="1:8">
-      <c r="A120" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="B120" s="17"/>
-      <c r="C120" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="D120" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="E120" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="F120" s="18">
-        <v>0.0</v>
-      </c>
-      <c r="G120" s="19">
-        <v>35.0</v>
-      </c>
-      <c r="H120" s="19">
-        <v>0.0</v>
-      </c>
+      <c r="F120" s="15"/>
+      <c r="G120" s="16"/>
+      <c r="H120" s="16"/>
     </row>
     <row r="121" spans="1:8">
-      <c r="A121" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="B121" s="17"/>
-      <c r="C121" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="D121" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="E121" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="F121" s="18">
-        <v>0.0</v>
-      </c>
-      <c r="G121" s="19">
-        <v>47.0</v>
-      </c>
-      <c r="H121" s="19">
-        <v>0.0</v>
-      </c>
+      <c r="F121" s="15"/>
+      <c r="G121" s="16"/>
+      <c r="H121" s="16"/>
     </row>
     <row r="122" spans="1:8">
-      <c r="A122" s="17" t="s">
-        <v>62</v>
-      </c>
-      <c r="B122" s="17"/>
-      <c r="C122" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="D122" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="E122" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="F122" s="18">
-        <v>0.0</v>
-      </c>
-      <c r="G122" s="19">
-        <v>35.0</v>
-      </c>
-      <c r="H122" s="19">
-        <v>0.0</v>
-      </c>
+      <c r="F122" s="15"/>
+      <c r="G122" s="16"/>
+      <c r="H122" s="16"/>
     </row>
     <row r="123" spans="1:8">
-      <c r="A123" s="17" t="s">
-        <v>62</v>
-      </c>
-      <c r="B123" s="17"/>
-      <c r="C123" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="D123" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="E123" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="F123" s="18">
-        <v>0.0</v>
-      </c>
-      <c r="G123" s="19">
-        <v>47.0</v>
-      </c>
-      <c r="H123" s="19">
-        <v>0.0</v>
-      </c>
+      <c r="F123" s="15"/>
+      <c r="G123" s="16"/>
+      <c r="H123" s="16"/>
     </row>
     <row r="124" spans="1:8">
-      <c r="A124" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="B124" s="17"/>
-      <c r="C124" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="D124" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="E124" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="F124" s="18">
-        <v>0.0</v>
-      </c>
-      <c r="G124" s="19">
-        <v>47.0</v>
-      </c>
-      <c r="H124" s="19">
-        <v>0.0</v>
-      </c>
+      <c r="F124" s="15"/>
+      <c r="G124" s="16"/>
+      <c r="H124" s="16"/>
     </row>
     <row r="125" spans="1:8">
-      <c r="A125" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="B125" s="17"/>
-      <c r="C125" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="D125" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="E125" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="F125" s="18">
-        <v>0.0</v>
-      </c>
-      <c r="G125" s="19">
-        <v>47.0</v>
-      </c>
-      <c r="H125" s="19">
-        <v>0.0</v>
-      </c>
+      <c r="F125" s="15"/>
+      <c r="G125" s="16"/>
+      <c r="H125" s="16"/>
     </row>
     <row r="126" spans="1:8">
-      <c r="A126" s="17" t="s">
-        <v>74</v>
-      </c>
-      <c r="B126" s="17"/>
-      <c r="C126" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="D126" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="E126" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="F126" s="18">
-        <v>0.0</v>
-      </c>
-      <c r="G126" s="19">
-        <v>35.0</v>
-      </c>
-      <c r="H126" s="19">
-        <v>0.0</v>
-      </c>
+      <c r="F126" s="15"/>
+      <c r="G126" s="16"/>
+      <c r="H126" s="16"/>
     </row>
     <row r="127" spans="1:8">
-      <c r="A127" s="17" t="s">
-        <v>74</v>
-      </c>
-      <c r="B127" s="17"/>
-      <c r="C127" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="D127" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="E127" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="F127" s="18">
-        <v>0.0</v>
-      </c>
-      <c r="G127" s="19">
-        <v>47.0</v>
-      </c>
-      <c r="H127" s="19">
-        <v>0.0</v>
-      </c>
+      <c r="F127" s="15"/>
+      <c r="G127" s="16"/>
+      <c r="H127" s="16"/>
     </row>
     <row r="128" spans="1:8">
-      <c r="A128" s="17" t="s">
-        <v>62</v>
-      </c>
-      <c r="B128" s="17"/>
-      <c r="C128" s="17" t="s">
-        <v>83</v>
-      </c>
-      <c r="D128" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="E128" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="F128" s="18">
-        <v>0.0</v>
-      </c>
-      <c r="G128" s="19">
-        <v>38.0</v>
-      </c>
-      <c r="H128" s="19">
-        <v>0.0</v>
-      </c>
+      <c r="F128" s="15"/>
+      <c r="G128" s="16"/>
+      <c r="H128" s="16"/>
     </row>
     <row r="129" spans="1:8">
-      <c r="A129" s="17" t="s">
-        <v>62</v>
-      </c>
-      <c r="B129" s="17"/>
-      <c r="C129" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="D129" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="E129" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="F129" s="18">
-        <v>0.0</v>
-      </c>
-      <c r="G129" s="19">
-        <v>60.0</v>
-      </c>
-      <c r="H129" s="19">
-        <v>0.0</v>
-      </c>
+      <c r="F129" s="15"/>
+      <c r="G129" s="16"/>
+      <c r="H129" s="16"/>
     </row>
     <row r="130" spans="1:8">
-      <c r="A130" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="B130" s="17"/>
-      <c r="C130" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="D130" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="E130" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="F130" s="18">
-        <v>0.0</v>
-      </c>
-      <c r="G130" s="19">
-        <v>380.25</v>
-      </c>
-      <c r="H130" s="19">
-        <v>0.0</v>
-      </c>
+      <c r="F130" s="15"/>
+      <c r="G130" s="16"/>
+      <c r="H130" s="16"/>
     </row>
     <row r="131" spans="1:8">
-      <c r="A131" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="B131" s="17"/>
-      <c r="C131" s="17" t="s">
-        <v>85</v>
-      </c>
-      <c r="D131" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="E131" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="F131" s="18">
-        <v>0.0</v>
-      </c>
-      <c r="G131" s="19">
-        <v>33.0</v>
-      </c>
-      <c r="H131" s="19">
-        <v>0.0</v>
-      </c>
+      <c r="F131" s="15"/>
+      <c r="G131" s="16"/>
+      <c r="H131" s="16"/>
     </row>
     <row r="132" spans="1:8">
-      <c r="A132" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="B132" s="17"/>
-      <c r="C132" s="17" t="s">
-        <v>85</v>
-      </c>
-      <c r="D132" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="E132" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="F132" s="18">
-        <v>0.0</v>
-      </c>
-      <c r="G132" s="19">
-        <v>33.0</v>
-      </c>
-      <c r="H132" s="19">
-        <v>0.0</v>
-      </c>
+      <c r="F132" s="15"/>
+      <c r="G132" s="16"/>
+      <c r="H132" s="16"/>
     </row>
     <row r="133" spans="1:8">
-      <c r="A133" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="B133" s="17"/>
-      <c r="C133" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="D133" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="E133" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="F133" s="18">
-        <v>0.0</v>
-      </c>
-      <c r="G133" s="19">
-        <v>90.0</v>
-      </c>
-      <c r="H133" s="19">
-        <v>0.0</v>
-      </c>
+      <c r="F133" s="15"/>
+      <c r="G133" s="16"/>
+      <c r="H133" s="16"/>
     </row>
     <row r="134" spans="1:8">
-      <c r="A134" s="17" t="s">
-        <v>74</v>
-      </c>
-      <c r="B134" s="17"/>
-      <c r="C134" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="D134" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="E134" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="F134" s="18">
-        <v>0.0</v>
-      </c>
-      <c r="G134" s="19">
-        <v>90.0</v>
-      </c>
-      <c r="H134" s="19">
-        <v>0.0</v>
-      </c>
+      <c r="F134" s="15"/>
+      <c r="G134" s="16"/>
+      <c r="H134" s="16"/>
     </row>
     <row r="135" spans="1:8">
-      <c r="A135" s="17" t="s">
-        <v>74</v>
-      </c>
-      <c r="B135" s="17"/>
-      <c r="C135" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="D135" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="E135" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="F135" s="18">
-        <v>0.0</v>
-      </c>
-      <c r="G135" s="19">
-        <v>30.0</v>
-      </c>
-      <c r="H135" s="19">
-        <v>0.0</v>
-      </c>
+      <c r="F135" s="15"/>
+      <c r="G135" s="16"/>
+      <c r="H135" s="16"/>
     </row>
     <row r="136" spans="1:8">
-      <c r="A136" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="B136" s="17"/>
-      <c r="C136" s="17" t="s">
-        <v>86</v>
-      </c>
-      <c r="D136" s="17" t="s">
-        <v>87</v>
-      </c>
-      <c r="E136" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="F136" s="18">
-        <v>0.0</v>
-      </c>
-      <c r="G136" s="19">
-        <v>32.0</v>
-      </c>
-      <c r="H136" s="19">
-        <v>0.0</v>
-      </c>
+      <c r="F136" s="15"/>
+      <c r="G136" s="16"/>
+      <c r="H136" s="16"/>
     </row>
     <row r="137" spans="1:8">
-      <c r="A137" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="B137" s="17"/>
-      <c r="C137" s="17" t="s">
-        <v>86</v>
-      </c>
-      <c r="D137" s="17" t="s">
-        <v>87</v>
-      </c>
-      <c r="E137" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="F137" s="18">
-        <v>0.0</v>
-      </c>
-      <c r="G137" s="19">
-        <v>32.0</v>
-      </c>
-      <c r="H137" s="19">
-        <v>0.0</v>
-      </c>
+      <c r="F137" s="15"/>
+      <c r="G137" s="16"/>
+      <c r="H137" s="16"/>
     </row>
     <row r="138" spans="1:8">
-      <c r="A138" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="B138" s="17"/>
-      <c r="C138" s="17" t="s">
-        <v>86</v>
-      </c>
-      <c r="D138" s="17" t="s">
-        <v>87</v>
-      </c>
-      <c r="E138" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="F138" s="18">
-        <v>0.0</v>
-      </c>
-      <c r="G138" s="19">
-        <v>71.0</v>
-      </c>
-      <c r="H138" s="19">
-        <v>0.0</v>
-      </c>
+      <c r="F138" s="15"/>
+      <c r="G138" s="16"/>
+      <c r="H138" s="16"/>
     </row>
     <row r="139" spans="1:8">
-      <c r="A139" s="17" t="s">
-        <v>74</v>
-      </c>
-      <c r="B139" s="17"/>
-      <c r="C139" s="17" t="s">
-        <v>86</v>
-      </c>
-      <c r="D139" s="17" t="s">
-        <v>87</v>
-      </c>
-      <c r="E139" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="F139" s="18">
-        <v>0.0</v>
-      </c>
-      <c r="G139" s="19">
-        <v>32.0</v>
-      </c>
-      <c r="H139" s="19">
-        <v>0.0</v>
-      </c>
+      <c r="F139" s="15"/>
+      <c r="G139" s="16"/>
+      <c r="H139" s="16"/>
     </row>
     <row r="140" spans="1:8">
-      <c r="A140" s="17" t="s">
-        <v>74</v>
-      </c>
-      <c r="B140" s="17"/>
-      <c r="C140" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="D140" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="E140" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="F140" s="18">
-        <v>0.0</v>
-      </c>
-      <c r="G140" s="19">
-        <v>285.0</v>
-      </c>
-      <c r="H140" s="19">
-        <v>0.0</v>
-      </c>
+      <c r="F140" s="15"/>
+      <c r="G140" s="16"/>
+      <c r="H140" s="16"/>
     </row>
     <row r="141" spans="1:8">
-      <c r="A141" s="17" t="s">
-        <v>74</v>
-      </c>
-      <c r="B141" s="17"/>
-      <c r="C141" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="D141" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="E141" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="F141" s="18">
-        <v>0.0</v>
-      </c>
-      <c r="G141" s="19">
-        <v>21.0</v>
-      </c>
-      <c r="H141" s="19">
-        <v>0.0</v>
-      </c>
+      <c r="F141" s="15"/>
+      <c r="G141" s="16"/>
+      <c r="H141" s="16"/>
     </row>
     <row r="142" spans="1:8">
-      <c r="A142" s="17" t="s">
-        <v>74</v>
-      </c>
-      <c r="B142" s="17"/>
-      <c r="C142" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="D142" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="E142" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="F142" s="18">
-        <v>0.0</v>
-      </c>
-      <c r="G142" s="19">
-        <v>34.5</v>
-      </c>
-      <c r="H142" s="19">
-        <v>0.0</v>
-      </c>
+      <c r="F142" s="15"/>
+      <c r="G142" s="16"/>
+      <c r="H142" s="16"/>
     </row>
     <row r="143" spans="1:8">
-      <c r="A143" s="17" t="s">
-        <v>74</v>
-      </c>
-      <c r="B143" s="17"/>
-      <c r="C143" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="D143" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="E143" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="F143" s="18">
-        <v>0.0</v>
-      </c>
-      <c r="G143" s="19">
-        <v>31.0</v>
-      </c>
-      <c r="H143" s="19">
-        <v>0.0</v>
-      </c>
+      <c r="F143" s="15"/>
+      <c r="G143" s="16"/>
+      <c r="H143" s="16"/>
     </row>
     <row r="144" spans="1:8">
-      <c r="A144" s="17" t="s">
-        <v>74</v>
-      </c>
-      <c r="B144" s="17"/>
-      <c r="C144" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="D144" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="E144" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="F144" s="18">
-        <v>0.0</v>
-      </c>
-      <c r="G144" s="19">
-        <v>3.0</v>
-      </c>
-      <c r="H144" s="19">
-        <v>0.0</v>
-      </c>
+      <c r="F144" s="15"/>
+      <c r="G144" s="16"/>
+      <c r="H144" s="16"/>
     </row>
     <row r="145" spans="1:8">
       <c r="F145" s="15"/>
@@ -4365,18 +1594,9 @@
       <c r="H145" s="16"/>
     </row>
     <row r="146" spans="1:8">
-      <c r="E146" s="17" t="s">
-        <v>88</v>
-      </c>
-      <c r="F146" s="18">
-        <v>1474.08</v>
-      </c>
-      <c r="G146" s="19">
-        <v>19476.01</v>
-      </c>
-      <c r="H146" s="19">
-        <v>64356.63</v>
-      </c>
+      <c r="F146" s="15"/>
+      <c r="G146" s="16"/>
+      <c r="H146" s="16"/>
     </row>
     <row r="147" spans="1:8">
       <c r="F147" s="15"/>
